--- a/data/pca/factorExposure/factorExposure_2015-01-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.009169735881528803</v>
+        <v>0.00819663526399874</v>
       </c>
       <c r="C2">
-        <v>-0.03736507483241203</v>
+        <v>0.05303169820611429</v>
       </c>
       <c r="D2">
-        <v>-0.1117955741434095</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03616706676937268</v>
+      </c>
+      <c r="E2">
+        <v>0.1102918267151763</v>
+      </c>
+      <c r="F2">
+        <v>0.1312937663675991</v>
+      </c>
+      <c r="G2">
+        <v>0.07428279675356481</v>
+      </c>
+      <c r="H2">
+        <v>-0.04913539705484105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03751457531666583</v>
+        <v>0.01930422250402026</v>
       </c>
       <c r="C4">
-        <v>-0.106890287384964</v>
+        <v>0.1313591594717271</v>
       </c>
       <c r="D4">
-        <v>-0.06863006191409414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.01687691826978615</v>
+      </c>
+      <c r="E4">
+        <v>0.08368306527760409</v>
+      </c>
+      <c r="F4">
+        <v>0.109983625800239</v>
+      </c>
+      <c r="G4">
+        <v>-0.06272495757255711</v>
+      </c>
+      <c r="H4">
+        <v>-0.02407283506668419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02745650006570682</v>
+        <v>0.03400063077487421</v>
       </c>
       <c r="C6">
-        <v>-0.0362065228092173</v>
+        <v>0.05046822670326148</v>
       </c>
       <c r="D6">
-        <v>-0.08244386512447742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01419639984106895</v>
+      </c>
+      <c r="E6">
+        <v>0.1147814950990928</v>
+      </c>
+      <c r="F6">
+        <v>0.07562873267961391</v>
+      </c>
+      <c r="G6">
+        <v>0.002816088137580146</v>
+      </c>
+      <c r="H6">
+        <v>0.04675695993813733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.007967137509322063</v>
+        <v>0.005652260063348052</v>
       </c>
       <c r="C7">
-        <v>-0.03635964848818474</v>
+        <v>0.05194056341350249</v>
       </c>
       <c r="D7">
-        <v>-0.06673275676765238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.003399584063009213</v>
+      </c>
+      <c r="E7">
+        <v>0.09358129847520422</v>
+      </c>
+      <c r="F7">
+        <v>0.02585632898317014</v>
+      </c>
+      <c r="G7">
+        <v>-0.02073132464563946</v>
+      </c>
+      <c r="H7">
+        <v>0.005446948402440433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>1.800414155831464e-06</v>
+        <v>-0.005654856918709948</v>
       </c>
       <c r="C8">
-        <v>-0.04327243190122752</v>
+        <v>0.0524078621908716</v>
       </c>
       <c r="D8">
-        <v>-0.06368333065690497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.006660466180351919</v>
+      </c>
+      <c r="E8">
+        <v>0.06391901739665083</v>
+      </c>
+      <c r="F8">
+        <v>0.07945322538209648</v>
+      </c>
+      <c r="G8">
+        <v>-0.008592748573613222</v>
+      </c>
+      <c r="H8">
+        <v>-0.06854014657048035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02406689405281786</v>
+        <v>0.01201343887544467</v>
       </c>
       <c r="C9">
-        <v>-0.09229302772458464</v>
+        <v>0.1086287678811394</v>
       </c>
       <c r="D9">
-        <v>-0.07523372708993434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01768741264569358</v>
+      </c>
+      <c r="E9">
+        <v>0.07719471338342239</v>
+      </c>
+      <c r="F9">
+        <v>0.08242469345616089</v>
+      </c>
+      <c r="G9">
+        <v>-0.02542504056704623</v>
+      </c>
+      <c r="H9">
+        <v>0.01070114084831247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.2212738588319566</v>
+        <v>0.2431731109792253</v>
       </c>
       <c r="C10">
-        <v>0.1069659814704679</v>
+        <v>-0.07998105695555802</v>
       </c>
       <c r="D10">
-        <v>0.04147432477022649</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0001757510957443754</v>
+      </c>
+      <c r="E10">
+        <v>-0.02766667106458073</v>
+      </c>
+      <c r="F10">
+        <v>0.0213692195595853</v>
+      </c>
+      <c r="G10">
+        <v>-0.01082884544505865</v>
+      </c>
+      <c r="H10">
+        <v>0.006856807936909981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.005011000317001073</v>
+        <v>0.009037132140105495</v>
       </c>
       <c r="C11">
-        <v>-0.04266773124527462</v>
+        <v>0.06351311510826613</v>
       </c>
       <c r="D11">
-        <v>-0.03924100262942353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0007881829829047937</v>
+      </c>
+      <c r="E11">
+        <v>0.05489461236522439</v>
+      </c>
+      <c r="F11">
+        <v>0.01079552659237273</v>
+      </c>
+      <c r="G11">
+        <v>-0.01301686388078107</v>
+      </c>
+      <c r="H11">
+        <v>0.008357495828934931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.005399225895061119</v>
+        <v>0.009977078883207462</v>
       </c>
       <c r="C12">
-        <v>-0.04651653684265723</v>
+        <v>0.05445774459351702</v>
       </c>
       <c r="D12">
-        <v>-0.046545046667011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.00845330190437257</v>
+      </c>
+      <c r="E12">
+        <v>0.05002524765884694</v>
+      </c>
+      <c r="F12">
+        <v>0.01091329078392495</v>
+      </c>
+      <c r="G12">
+        <v>0.01472414404906913</v>
+      </c>
+      <c r="H12">
+        <v>0.02533101161008954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01839796346315472</v>
+        <v>0.005655173856877286</v>
       </c>
       <c r="C13">
-        <v>-0.05449252559693922</v>
+        <v>0.0866845935313518</v>
       </c>
       <c r="D13">
-        <v>-0.1093978995709412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05072306322134273</v>
+      </c>
+      <c r="E13">
+        <v>0.1222981661235369</v>
+      </c>
+      <c r="F13">
+        <v>0.06057595830452214</v>
+      </c>
+      <c r="G13">
+        <v>0.09454657188759502</v>
+      </c>
+      <c r="H13">
+        <v>0.02557017433696974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01064661987936032</v>
+        <v>0.002314873113328815</v>
       </c>
       <c r="C14">
-        <v>-0.02235943832826554</v>
+        <v>0.04457957773106097</v>
       </c>
       <c r="D14">
-        <v>-0.05797795059296341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.006183020215615815</v>
+      </c>
+      <c r="E14">
+        <v>0.1074700245588337</v>
+      </c>
+      <c r="F14">
+        <v>0.05625597535967178</v>
+      </c>
+      <c r="G14">
+        <v>0.03064632406698217</v>
+      </c>
+      <c r="H14">
+        <v>0.0349301184901069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002209311689765962</v>
+        <v>-0.005151037166698682</v>
       </c>
       <c r="C15">
-        <v>-0.01659758354756985</v>
+        <v>0.03953960277737262</v>
       </c>
       <c r="D15">
-        <v>-0.0546095182711905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01572373210261017</v>
+      </c>
+      <c r="E15">
+        <v>0.07002976391417012</v>
+      </c>
+      <c r="F15">
+        <v>0.02925368737689713</v>
+      </c>
+      <c r="G15">
+        <v>0.00174293000649039</v>
+      </c>
+      <c r="H15">
+        <v>-0.01119400280582243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.006117441875126704</v>
+        <v>0.009202515986867955</v>
       </c>
       <c r="C16">
-        <v>-0.04377770115574244</v>
+        <v>0.05668318378840973</v>
       </c>
       <c r="D16">
-        <v>-0.04407824761946679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.004357123452855679</v>
+      </c>
+      <c r="E16">
+        <v>0.05176343004317588</v>
+      </c>
+      <c r="F16">
+        <v>0.008634146518292828</v>
+      </c>
+      <c r="G16">
+        <v>-0.01084902065138217</v>
+      </c>
+      <c r="H16">
+        <v>0.02621605663570575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.002508027785429336</v>
+        <v>0.0002146001767209615</v>
       </c>
       <c r="C19">
-        <v>-0.0276150727003734</v>
+        <v>0.02024566151232943</v>
       </c>
       <c r="D19">
-        <v>-0.03976943668007045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.009975745431729221</v>
+      </c>
+      <c r="E19">
+        <v>0.01093534833877414</v>
+      </c>
+      <c r="F19">
+        <v>-0.002631566090344849</v>
+      </c>
+      <c r="G19">
+        <v>0.02559478813325997</v>
+      </c>
+      <c r="H19">
+        <v>-0.01886644264962116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001464612559335527</v>
+        <v>0.003304683122928335</v>
       </c>
       <c r="C20">
-        <v>-0.03868050321421841</v>
+        <v>0.0594565236271404</v>
       </c>
       <c r="D20">
-        <v>-0.0532910339846706</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0178055146528565</v>
+      </c>
+      <c r="E20">
+        <v>0.07290441597393811</v>
+      </c>
+      <c r="F20">
+        <v>0.02947453589060475</v>
+      </c>
+      <c r="G20">
+        <v>-0.02335766682835362</v>
+      </c>
+      <c r="H20">
+        <v>0.01726229266543167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003588212242510443</v>
+        <v>0.002750012050477882</v>
       </c>
       <c r="C21">
-        <v>-0.06128094243012094</v>
+        <v>0.07181739540316656</v>
       </c>
       <c r="D21">
-        <v>-0.07364467387420318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01350392936294557</v>
+      </c>
+      <c r="E21">
+        <v>0.08043989325066142</v>
+      </c>
+      <c r="F21">
+        <v>0.09480508467553234</v>
+      </c>
+      <c r="G21">
+        <v>0.1084025917245921</v>
+      </c>
+      <c r="H21">
+        <v>0.01716370058976035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001276354452882766</v>
+        <v>-0.01132316596122472</v>
       </c>
       <c r="C22">
-        <v>-0.07545328735811609</v>
+        <v>0.1020903611276271</v>
       </c>
       <c r="D22">
-        <v>-0.1885165755444342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1046701949214803</v>
+      </c>
+      <c r="E22">
+        <v>0.1950573782573342</v>
+      </c>
+      <c r="F22">
+        <v>0.2089101047106162</v>
+      </c>
+      <c r="G22">
+        <v>-0.06024054072433718</v>
+      </c>
+      <c r="H22">
+        <v>-0.2569098819381536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001443575299327752</v>
+        <v>-0.008295658444674565</v>
       </c>
       <c r="C23">
-        <v>-0.07655176994239629</v>
+        <v>0.1047849881568457</v>
       </c>
       <c r="D23">
-        <v>-0.1876176960388028</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1077200125326491</v>
+      </c>
+      <c r="E23">
+        <v>0.1934854338985974</v>
+      </c>
+      <c r="F23">
+        <v>0.2078942076394505</v>
+      </c>
+      <c r="G23">
+        <v>-0.05620834414208672</v>
+      </c>
+      <c r="H23">
+        <v>-0.2471893512937641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.007110217970550753</v>
+        <v>0.00971532288052065</v>
       </c>
       <c r="C24">
-        <v>-0.06400744344040667</v>
+        <v>0.07286233234098395</v>
       </c>
       <c r="D24">
-        <v>-0.05224109464038872</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.004189313803992898</v>
+      </c>
+      <c r="E24">
+        <v>0.05944761261689106</v>
+      </c>
+      <c r="F24">
+        <v>0.0140176761707841</v>
+      </c>
+      <c r="G24">
+        <v>-0.002165441910249286</v>
+      </c>
+      <c r="H24">
+        <v>0.009469629510636401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.008838033509629891</v>
+        <v>0.0138266443520712</v>
       </c>
       <c r="C25">
-        <v>-0.05640497585439175</v>
+        <v>0.06734201232678415</v>
       </c>
       <c r="D25">
-        <v>-0.04126699343272611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.007001747692705549</v>
+      </c>
+      <c r="E25">
+        <v>0.04530153209985144</v>
+      </c>
+      <c r="F25">
+        <v>0.01431935545466139</v>
+      </c>
+      <c r="G25">
+        <v>-0.01114348710950106</v>
+      </c>
+      <c r="H25">
+        <v>0.01436949183632502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.006736845694537888</v>
+        <v>0.01601453514122731</v>
       </c>
       <c r="C26">
-        <v>-0.02699351769183146</v>
+        <v>0.04544916693189456</v>
       </c>
       <c r="D26">
-        <v>-0.04779058997461727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01797398411733809</v>
+      </c>
+      <c r="E26">
+        <v>0.07196150225863585</v>
+      </c>
+      <c r="F26">
+        <v>0.06013578533968642</v>
+      </c>
+      <c r="G26">
+        <v>0.01173258193741728</v>
+      </c>
+      <c r="H26">
+        <v>-0.007284883526691898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.3037413600771467</v>
+        <v>0.3143356177957959</v>
       </c>
       <c r="C28">
-        <v>0.1076300934138606</v>
+        <v>-0.08601600398188075</v>
       </c>
       <c r="D28">
-        <v>0.02123026248859047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01847785562288807</v>
+      </c>
+      <c r="E28">
+        <v>-0.05312349758663434</v>
+      </c>
+      <c r="F28">
+        <v>0.06176599736553438</v>
+      </c>
+      <c r="G28">
+        <v>7.235579270645498e-05</v>
+      </c>
+      <c r="H28">
+        <v>-0.08014959251018014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0009590193474557961</v>
+        <v>0.00228689461220278</v>
       </c>
       <c r="C29">
-        <v>-0.02963685350844935</v>
+        <v>0.05251018700382399</v>
       </c>
       <c r="D29">
-        <v>-0.06243713741988621</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.005191294486347138</v>
+      </c>
+      <c r="E29">
+        <v>0.1186150862544504</v>
+      </c>
+      <c r="F29">
+        <v>0.06012650711393082</v>
+      </c>
+      <c r="G29">
+        <v>0.03398944816074636</v>
+      </c>
+      <c r="H29">
+        <v>0.05671636356260113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.01848246487874979</v>
+        <v>0.01615490117724292</v>
       </c>
       <c r="C30">
-        <v>-0.09467383901066137</v>
+        <v>0.1163847602700711</v>
       </c>
       <c r="D30">
-        <v>-0.1336103652458852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.01640141048476791</v>
+      </c>
+      <c r="E30">
+        <v>0.1412120801272478</v>
+      </c>
+      <c r="F30">
+        <v>0.052816885393797</v>
+      </c>
+      <c r="G30">
+        <v>-0.02565390082536507</v>
+      </c>
+      <c r="H30">
+        <v>-8.782340142203828e-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.01508722211974639</v>
+        <v>0.008208553356412197</v>
       </c>
       <c r="C31">
-        <v>-0.09848227317788943</v>
+        <v>0.1027716960754858</v>
       </c>
       <c r="D31">
-        <v>-0.03555899782882371</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.006925740070107125</v>
+      </c>
+      <c r="E31">
+        <v>0.02214870889019449</v>
+      </c>
+      <c r="F31">
+        <v>0.007445553797572435</v>
+      </c>
+      <c r="G31">
+        <v>0.01146126766724977</v>
+      </c>
+      <c r="H31">
+        <v>-0.02595634109292132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01176237575984522</v>
+        <v>0.01179798134610051</v>
       </c>
       <c r="C32">
-        <v>-0.05559134205389383</v>
+        <v>0.06412153992155439</v>
       </c>
       <c r="D32">
-        <v>-0.07603159986191438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0491141505093695</v>
+      </c>
+      <c r="E32">
+        <v>0.04535298701570786</v>
+      </c>
+      <c r="F32">
+        <v>0.08345279300667872</v>
+      </c>
+      <c r="G32">
+        <v>0.03300898578376695</v>
+      </c>
+      <c r="H32">
+        <v>-0.005398887020951064</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.001268147562669692</v>
+        <v>0.007126953836969621</v>
       </c>
       <c r="C33">
-        <v>-0.0581076698554927</v>
+        <v>0.0828418535294627</v>
       </c>
       <c r="D33">
-        <v>-0.07722320130889011</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01955427231093027</v>
+      </c>
+      <c r="E33">
+        <v>0.09526868377250572</v>
+      </c>
+      <c r="F33">
+        <v>0.04833516028811653</v>
+      </c>
+      <c r="G33">
+        <v>0.004039140992453332</v>
+      </c>
+      <c r="H33">
+        <v>0.00682297450428448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.003993204711281222</v>
+        <v>0.008937505434560419</v>
       </c>
       <c r="C34">
-        <v>-0.06057286690920689</v>
+        <v>0.06237037716157232</v>
       </c>
       <c r="D34">
-        <v>-0.05611896380457679</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.002831059331329234</v>
+      </c>
+      <c r="E34">
+        <v>0.04705027290147697</v>
+      </c>
+      <c r="F34">
+        <v>-0.01614098199767389</v>
+      </c>
+      <c r="G34">
+        <v>0.01714130520067757</v>
+      </c>
+      <c r="H34">
+        <v>0.002912233081639375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0009704617589039493</v>
+        <v>0.004313423227187979</v>
       </c>
       <c r="C35">
-        <v>-0.001117846619752191</v>
+        <v>0.02105778354426536</v>
       </c>
       <c r="D35">
-        <v>-0.005137125340327325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007685337878048922</v>
+      </c>
+      <c r="E35">
+        <v>0.03491766334248922</v>
+      </c>
+      <c r="F35">
+        <v>0.03214045273735865</v>
+      </c>
+      <c r="G35">
+        <v>0.0007868240811950217</v>
+      </c>
+      <c r="H35">
+        <v>0.02633883945069631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.005445832904667667</v>
+        <v>0.01020691529735731</v>
       </c>
       <c r="C36">
-        <v>-0.028424501869769</v>
+        <v>0.03895001066161662</v>
       </c>
       <c r="D36">
-        <v>-0.0411450815777574</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.004692474607414018</v>
+      </c>
+      <c r="E36">
+        <v>0.06182372995443988</v>
+      </c>
+      <c r="F36">
+        <v>0.05397214506550961</v>
+      </c>
+      <c r="G36">
+        <v>0.003998654076221713</v>
+      </c>
+      <c r="H36">
+        <v>0.0007681169940350155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005467278644734786</v>
+        <v>0.006798977540994617</v>
       </c>
       <c r="C38">
-        <v>-0.02248028450436751</v>
+        <v>0.04250944589553671</v>
       </c>
       <c r="D38">
-        <v>-0.07148589002941301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0194667347564449</v>
+      </c>
+      <c r="E38">
+        <v>0.07825634628512479</v>
+      </c>
+      <c r="F38">
+        <v>0.02404385158098967</v>
+      </c>
+      <c r="G38">
+        <v>-0.02096036907407757</v>
+      </c>
+      <c r="H38">
+        <v>-0.05117884206591822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.007634632997313428</v>
+        <v>0.007232230727270407</v>
       </c>
       <c r="C39">
-        <v>-0.07109887053177824</v>
+        <v>0.09957375242621544</v>
       </c>
       <c r="D39">
-        <v>-0.09800374567896755</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.006845437255392555</v>
+      </c>
+      <c r="E39">
+        <v>0.1160435261416955</v>
+      </c>
+      <c r="F39">
+        <v>0.01942912119672708</v>
+      </c>
+      <c r="G39">
+        <v>0.004127930840636462</v>
+      </c>
+      <c r="H39">
+        <v>0.03185121091968161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.003693365950525065</v>
+        <v>0.009150565884224443</v>
       </c>
       <c r="C40">
-        <v>-0.03112204151256526</v>
+        <v>0.04729801952968832</v>
       </c>
       <c r="D40">
-        <v>-0.1021048523444366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0167070925181048</v>
+      </c>
+      <c r="E40">
+        <v>0.118535758385135</v>
+      </c>
+      <c r="F40">
+        <v>0.009041852512870655</v>
+      </c>
+      <c r="G40">
+        <v>0.04004251496665406</v>
+      </c>
+      <c r="H40">
+        <v>-0.008337116683704307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009311809524510968</v>
+        <v>0.01694037059702471</v>
       </c>
       <c r="C41">
-        <v>-0.02201839959750669</v>
+        <v>0.03808277630701535</v>
       </c>
       <c r="D41">
-        <v>-0.01808503291627834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006779074568344245</v>
+      </c>
+      <c r="E41">
+        <v>0.0211357478060947</v>
+      </c>
+      <c r="F41">
+        <v>0.006571479124815327</v>
+      </c>
+      <c r="G41">
+        <v>-0.002358155658682744</v>
+      </c>
+      <c r="H41">
+        <v>-0.009312169830339547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.002634564513586408</v>
+        <v>0.008061784384758207</v>
       </c>
       <c r="C43">
-        <v>-0.01738158632468118</v>
+        <v>0.03195800733518296</v>
       </c>
       <c r="D43">
-        <v>-0.03425887498368865</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006971503954142622</v>
+      </c>
+      <c r="E43">
+        <v>0.03973608822870169</v>
+      </c>
+      <c r="F43">
+        <v>0.01026528936405275</v>
+      </c>
+      <c r="G43">
+        <v>-0.009473335277545456</v>
+      </c>
+      <c r="H43">
+        <v>-0.009899765047866348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01523130204209249</v>
+        <v>0.007487414469881421</v>
       </c>
       <c r="C44">
-        <v>-0.05101290617411471</v>
+        <v>0.06992685660884318</v>
       </c>
       <c r="D44">
-        <v>-0.07898196504720266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.004851345032510118</v>
+      </c>
+      <c r="E44">
+        <v>0.1080615199115285</v>
+      </c>
+      <c r="F44">
+        <v>0.06393323440232521</v>
+      </c>
+      <c r="G44">
+        <v>-0.005456264609660496</v>
+      </c>
+      <c r="H44">
+        <v>-0.01921173649945216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004384718121806974</v>
+        <v>-0.002257982152595048</v>
       </c>
       <c r="C46">
-        <v>-0.0376642739232629</v>
+        <v>0.0512182415469071</v>
       </c>
       <c r="D46">
-        <v>-0.06280147830840757</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01020629853428265</v>
+      </c>
+      <c r="E46">
+        <v>0.08850404885308988</v>
+      </c>
+      <c r="F46">
+        <v>0.05108029182869269</v>
+      </c>
+      <c r="G46">
+        <v>0.01196097933000133</v>
+      </c>
+      <c r="H46">
+        <v>0.01610601524748083</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.04155956820369429</v>
+        <v>0.02595689802703302</v>
       </c>
       <c r="C47">
-        <v>-0.1324957813139243</v>
+        <v>0.1268572618778987</v>
       </c>
       <c r="D47">
-        <v>-0.04356915310696245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004894348538178049</v>
+      </c>
+      <c r="E47">
+        <v>0.002717904211641539</v>
+      </c>
+      <c r="F47">
+        <v>-0.01044951099503904</v>
+      </c>
+      <c r="G47">
+        <v>-0.004561300616346191</v>
+      </c>
+      <c r="H47">
+        <v>-0.02476948041968722</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.004317983475420574</v>
+        <v>0.01224968150609608</v>
       </c>
       <c r="C48">
-        <v>-0.03071276892001817</v>
+        <v>0.04647636213854887</v>
       </c>
       <c r="D48">
-        <v>-0.040345791320382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.003441750734108381</v>
+      </c>
+      <c r="E48">
+        <v>0.06510977154473617</v>
+      </c>
+      <c r="F48">
+        <v>0.06734466866696946</v>
+      </c>
+      <c r="G48">
+        <v>0.0004059848164039535</v>
+      </c>
+      <c r="H48">
+        <v>-0.006234238537481171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002831972605282166</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006437760623655442</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.00201984842485499</v>
+      </c>
+      <c r="E49">
+        <v>0.002146785812303801</v>
+      </c>
+      <c r="F49">
+        <v>-0.01306682861686362</v>
+      </c>
+      <c r="G49">
+        <v>0.001214685635986499</v>
+      </c>
+      <c r="H49">
+        <v>0.01624269381038036</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0198255404491437</v>
+        <v>0.01186221647117915</v>
       </c>
       <c r="C50">
-        <v>-0.07333754383036434</v>
+        <v>0.08431502348541248</v>
       </c>
       <c r="D50">
-        <v>-0.05628372124875047</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.006934241263570147</v>
+      </c>
+      <c r="E50">
+        <v>0.0392585635309318</v>
+      </c>
+      <c r="F50">
+        <v>0.006987417763047064</v>
+      </c>
+      <c r="G50">
+        <v>-0.002311421407198813</v>
+      </c>
+      <c r="H50">
+        <v>-0.03268734036682355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.005052686928594091</v>
+        <v>-0.00516710352702244</v>
       </c>
       <c r="C51">
-        <v>-0.01119181037846555</v>
+        <v>0.02478850462172243</v>
       </c>
       <c r="D51">
-        <v>-0.05066883302559055</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01026941696142371</v>
+      </c>
+      <c r="E51">
+        <v>0.06094545428822918</v>
+      </c>
+      <c r="F51">
+        <v>0.05663260074407534</v>
+      </c>
+      <c r="G51">
+        <v>0.01751552623452024</v>
+      </c>
+      <c r="H51">
+        <v>-0.0038260796108432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07398932227261917</v>
+        <v>0.05553665730709331</v>
       </c>
       <c r="C53">
-        <v>-0.1636256050135643</v>
+        <v>0.1682603477360919</v>
       </c>
       <c r="D53">
-        <v>0.01092767166472473</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02422138238137332</v>
+      </c>
+      <c r="E53">
+        <v>-0.05852758349913102</v>
+      </c>
+      <c r="F53">
+        <v>-0.006415025464735932</v>
+      </c>
+      <c r="G53">
+        <v>0.014251579839871</v>
+      </c>
+      <c r="H53">
+        <v>-0.03021716785450906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.001255098503139994</v>
+        <v>0.009728944168765873</v>
       </c>
       <c r="C54">
-        <v>-0.03688170751147256</v>
+        <v>0.05300399598860004</v>
       </c>
       <c r="D54">
-        <v>-0.08014180816425893</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02359279201826731</v>
+      </c>
+      <c r="E54">
+        <v>0.07787941954097981</v>
+      </c>
+      <c r="F54">
+        <v>0.02952754022188944</v>
+      </c>
+      <c r="G54">
+        <v>0.000349805833475488</v>
+      </c>
+      <c r="H54">
+        <v>-0.01053691305307734</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0562877634131236</v>
+        <v>0.03624116058358493</v>
       </c>
       <c r="C55">
-        <v>-0.1280956182921839</v>
+        <v>0.1247530072571593</v>
       </c>
       <c r="D55">
-        <v>0.006714644384182048</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04699261675144999</v>
+      </c>
+      <c r="E55">
+        <v>-0.04382717704631724</v>
+      </c>
+      <c r="F55">
+        <v>-0.03310776229516797</v>
+      </c>
+      <c r="G55">
+        <v>0.02596558733181776</v>
+      </c>
+      <c r="H55">
+        <v>-0.03948402517606989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.08811443203909211</v>
+        <v>0.05546019268422657</v>
       </c>
       <c r="C56">
-        <v>-0.1893924367247272</v>
+        <v>0.1922599743832027</v>
       </c>
       <c r="D56">
-        <v>-0.01198061587361456</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03801882778865583</v>
+      </c>
+      <c r="E56">
+        <v>-0.07087619129365058</v>
+      </c>
+      <c r="F56">
+        <v>-0.0474254533640815</v>
+      </c>
+      <c r="G56">
+        <v>0.05720501858497416</v>
+      </c>
+      <c r="H56">
+        <v>-0.1040777022495175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.0140869198257678</v>
+        <v>0.008868174858072122</v>
       </c>
       <c r="C58">
-        <v>-0.05558105662779409</v>
+        <v>0.104070423588676</v>
       </c>
       <c r="D58">
-        <v>-0.165999308528191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1063969174006165</v>
+      </c>
+      <c r="E58">
+        <v>0.182138076594397</v>
+      </c>
+      <c r="F58">
+        <v>0.2422415456003558</v>
+      </c>
+      <c r="G58">
+        <v>-0.03520932537250557</v>
+      </c>
+      <c r="H58">
+        <v>-0.1451105929350194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2283784985451522</v>
+        <v>0.2633490364216352</v>
       </c>
       <c r="C59">
-        <v>0.06881473882976111</v>
+        <v>-0.0430999733934302</v>
       </c>
       <c r="D59">
-        <v>-0.04501003190356184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03601906144966401</v>
+      </c>
+      <c r="E59">
+        <v>0.01588208193833909</v>
+      </c>
+      <c r="F59">
+        <v>0.04061389113390417</v>
+      </c>
+      <c r="G59">
+        <v>0.03793612134760512</v>
+      </c>
+      <c r="H59">
+        <v>-0.01261559156167272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1472048737469128</v>
+        <v>0.1504679528953136</v>
       </c>
       <c r="C60">
-        <v>-0.1395921616666798</v>
+        <v>0.165321488909084</v>
       </c>
       <c r="D60">
-        <v>-0.1199613672299247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01215369174870751</v>
+      </c>
+      <c r="E60">
+        <v>0.125347429176417</v>
+      </c>
+      <c r="F60">
+        <v>-0.2112529324851526</v>
+      </c>
+      <c r="G60">
+        <v>0.006694816907082015</v>
+      </c>
+      <c r="H60">
+        <v>0.2437200590960177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01185039818310148</v>
+        <v>0.01299706886975768</v>
       </c>
       <c r="C61">
-        <v>-0.06420008950538958</v>
+        <v>0.0864713286087397</v>
       </c>
       <c r="D61">
-        <v>-0.0689249455278711</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.001815123607571616</v>
+      </c>
+      <c r="E61">
+        <v>0.07870118608108001</v>
+      </c>
+      <c r="F61">
+        <v>0.007937261885029599</v>
+      </c>
+      <c r="G61">
+        <v>0.007076903588563822</v>
+      </c>
+      <c r="H61">
+        <v>0.01275157490214461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0001293425085689286</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0005143746972454678</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.001854116273743739</v>
+      </c>
+      <c r="E62">
+        <v>9.373126988398022e-05</v>
+      </c>
+      <c r="F62">
+        <v>0.002966688521649052</v>
+      </c>
+      <c r="G62">
+        <v>0.001231743594627385</v>
+      </c>
+      <c r="H62">
+        <v>-0.001288659992905537</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.003122600221659148</v>
+        <v>0.01482149403392927</v>
       </c>
       <c r="C63">
-        <v>-0.03996544821913253</v>
+        <v>0.05780910036381232</v>
       </c>
       <c r="D63">
-        <v>-0.06204344732111237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0193445889053082</v>
+      </c>
+      <c r="E63">
+        <v>0.08442430345042105</v>
+      </c>
+      <c r="F63">
+        <v>0.02755380674630399</v>
+      </c>
+      <c r="G63">
+        <v>0.002341844078421361</v>
+      </c>
+      <c r="H63">
+        <v>0.01602918156195753</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02739921114300917</v>
+        <v>0.01352353497620772</v>
       </c>
       <c r="C64">
-        <v>-0.1084161466560255</v>
+        <v>0.1051710577657757</v>
       </c>
       <c r="D64">
-        <v>-0.009383143579295239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01681290954490086</v>
+      </c>
+      <c r="E64">
+        <v>0.01456703379708562</v>
+      </c>
+      <c r="F64">
+        <v>0.02170282950732527</v>
+      </c>
+      <c r="G64">
+        <v>-0.0330811634711649</v>
+      </c>
+      <c r="H64">
+        <v>0.01747432545235205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02368025680833723</v>
+        <v>0.02691064259942023</v>
       </c>
       <c r="C65">
-        <v>-0.03300144721178578</v>
+        <v>0.05805234379516924</v>
       </c>
       <c r="D65">
-        <v>-0.08614209225867533</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03441096381712255</v>
+      </c>
+      <c r="E65">
+        <v>0.1154986548709041</v>
+      </c>
+      <c r="F65">
+        <v>0.0119659423653962</v>
+      </c>
+      <c r="G65">
+        <v>-0.04887165584216614</v>
+      </c>
+      <c r="H65">
+        <v>0.06629059179925186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01434929847942147</v>
+        <v>0.0083253898334214</v>
       </c>
       <c r="C66">
-        <v>-0.09052370554121464</v>
+        <v>0.1243406447898633</v>
       </c>
       <c r="D66">
-        <v>-0.1193673131605518</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.02100285314535657</v>
+      </c>
+      <c r="E66">
+        <v>0.1223254964763865</v>
+      </c>
+      <c r="F66">
+        <v>0.02402118977946993</v>
+      </c>
+      <c r="G66">
+        <v>0.008188158318417921</v>
+      </c>
+      <c r="H66">
+        <v>-0.001989342558344756</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01367676150200427</v>
+        <v>0.01529351924262179</v>
       </c>
       <c r="C67">
-        <v>-0.02480334613516338</v>
+        <v>0.04177710581912911</v>
       </c>
       <c r="D67">
-        <v>-0.04013281357273386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003758036971295243</v>
+      </c>
+      <c r="E67">
+        <v>0.05270446801897254</v>
+      </c>
+      <c r="F67">
+        <v>-0.0153336510332342</v>
+      </c>
+      <c r="G67">
+        <v>-0.01722891549821757</v>
+      </c>
+      <c r="H67">
+        <v>-0.03174597508966141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2409998896686975</v>
+        <v>0.2810355359037255</v>
       </c>
       <c r="C68">
-        <v>0.0857142126408056</v>
+        <v>-0.05695031193268901</v>
       </c>
       <c r="D68">
-        <v>-0.02494248298676432</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02613649392665982</v>
+      </c>
+      <c r="E68">
+        <v>0.03549481474692776</v>
+      </c>
+      <c r="F68">
+        <v>0.05607268606564361</v>
+      </c>
+      <c r="G68">
+        <v>0.002912638555022117</v>
+      </c>
+      <c r="H68">
+        <v>-0.03762373206330048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.02783388314294568</v>
+        <v>0.01121056831378686</v>
       </c>
       <c r="C69">
-        <v>-0.1322306549466409</v>
+        <v>0.1141207001972764</v>
       </c>
       <c r="D69">
-        <v>-0.05536782633007233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.003365016912475999</v>
+      </c>
+      <c r="E69">
+        <v>0.01287051005150223</v>
+      </c>
+      <c r="F69">
+        <v>-0.01739705627337858</v>
+      </c>
+      <c r="G69">
+        <v>0.006531273713972748</v>
+      </c>
+      <c r="H69">
+        <v>-0.01494711456744686</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2590113663236505</v>
+        <v>0.2710518439779639</v>
       </c>
       <c r="C71">
-        <v>0.1008000084927541</v>
+        <v>-0.07273276943000499</v>
       </c>
       <c r="D71">
-        <v>-0.01598886823375418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01098803615596947</v>
+      </c>
+      <c r="E71">
+        <v>0.008351033986322101</v>
+      </c>
+      <c r="F71">
+        <v>0.02635383201606196</v>
+      </c>
+      <c r="G71">
+        <v>0.001583885826488114</v>
+      </c>
+      <c r="H71">
+        <v>-0.05933932529035498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.08035159070602281</v>
+        <v>0.06192635002519081</v>
       </c>
       <c r="C72">
-        <v>-0.1123644692469019</v>
+        <v>0.1333325412123575</v>
       </c>
       <c r="D72">
-        <v>-0.09238156565178676</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01377079642193849</v>
+      </c>
+      <c r="E72">
+        <v>0.07530372336369205</v>
+      </c>
+      <c r="F72">
+        <v>-0.0323626136950463</v>
+      </c>
+      <c r="G72">
+        <v>-0.01837511125810707</v>
+      </c>
+      <c r="H72">
+        <v>0.04848533642552754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1540436665574272</v>
+        <v>0.1570088407419567</v>
       </c>
       <c r="C73">
-        <v>-0.1125736084858701</v>
+        <v>0.1730205611466758</v>
       </c>
       <c r="D73">
-        <v>-0.1804806240141648</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07267736420137234</v>
+      </c>
+      <c r="E73">
+        <v>0.2553259578871087</v>
+      </c>
+      <c r="F73">
+        <v>-0.3506865351380557</v>
+      </c>
+      <c r="G73">
+        <v>-0.05676317816948384</v>
+      </c>
+      <c r="H73">
+        <v>0.3650448684752053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.06832266742455691</v>
+        <v>0.04618052708834532</v>
       </c>
       <c r="C74">
-        <v>-0.1406971170591571</v>
+        <v>0.1388047478739109</v>
       </c>
       <c r="D74">
-        <v>0.05752664256779401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03860483564117375</v>
+      </c>
+      <c r="E74">
+        <v>-0.07372103285885763</v>
+      </c>
+      <c r="F74">
+        <v>-0.004079230954017057</v>
+      </c>
+      <c r="G74">
+        <v>0.003548006872737064</v>
+      </c>
+      <c r="H74">
+        <v>-0.02928031949666075</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1582124370712627</v>
+        <v>0.09098048480249162</v>
       </c>
       <c r="C75">
-        <v>-0.2543414292199591</v>
+        <v>0.2507073609907906</v>
       </c>
       <c r="D75">
-        <v>0.03469067904723907</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.04300844241238024</v>
+      </c>
+      <c r="E75">
+        <v>-0.1694516010693354</v>
+      </c>
+      <c r="F75">
+        <v>-0.1387714294650133</v>
+      </c>
+      <c r="G75">
+        <v>0.02117037157425062</v>
+      </c>
+      <c r="H75">
+        <v>-0.2248739794288724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.08890592328176157</v>
+        <v>0.05374574096037143</v>
       </c>
       <c r="C76">
-        <v>-0.1756764747519156</v>
+        <v>0.1777035257955511</v>
       </c>
       <c r="D76">
-        <v>-0.002599467064798965</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03551852120098629</v>
+      </c>
+      <c r="E76">
+        <v>-0.06957633957511915</v>
+      </c>
+      <c r="F76">
+        <v>-0.06866530876952751</v>
+      </c>
+      <c r="G76">
+        <v>0.04476254134396477</v>
+      </c>
+      <c r="H76">
+        <v>-0.06939161883241619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.005066389258231419</v>
+        <v>0.002054005445553083</v>
       </c>
       <c r="C77">
-        <v>-0.119536419949798</v>
+        <v>0.1526065766442045</v>
       </c>
       <c r="D77">
-        <v>-0.2101249063451763</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.9099142263237606</v>
+      </c>
+      <c r="E77">
+        <v>-0.2499395240284791</v>
+      </c>
+      <c r="F77">
+        <v>-0.1027869848634999</v>
+      </c>
+      <c r="G77">
+        <v>-0.1021670314801008</v>
+      </c>
+      <c r="H77">
+        <v>0.1331474562229279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02693059829365498</v>
+        <v>0.02491313773026866</v>
       </c>
       <c r="C78">
-        <v>-0.1022735598943925</v>
+        <v>0.1115377627343614</v>
       </c>
       <c r="D78">
-        <v>-0.1235373533848187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.01425596592074551</v>
+      </c>
+      <c r="E78">
+        <v>0.09820039108854875</v>
+      </c>
+      <c r="F78">
+        <v>0.05769190106719918</v>
+      </c>
+      <c r="G78">
+        <v>0.06682318996531222</v>
+      </c>
+      <c r="H78">
+        <v>-0.04889768745910809</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.07565465910620826</v>
+        <v>0.05180890183539749</v>
       </c>
       <c r="C79">
-        <v>-0.2965123014574364</v>
+        <v>0.2491746762708864</v>
       </c>
       <c r="D79">
-        <v>0.689995724367737</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1934644265259129</v>
+      </c>
+      <c r="E79">
+        <v>-0.4080562990699322</v>
+      </c>
+      <c r="F79">
+        <v>0.560652646755912</v>
+      </c>
+      <c r="G79">
+        <v>-0.3365040107717968</v>
+      </c>
+      <c r="H79">
+        <v>0.4782804265344772</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003429921944602152</v>
+        <v>0.007377646311303301</v>
       </c>
       <c r="C80">
-        <v>-0.05000645166790327</v>
+        <v>0.04972537291363659</v>
       </c>
       <c r="D80">
-        <v>-0.02498645061140261</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02936601831938605</v>
+      </c>
+      <c r="E80">
+        <v>0.05195272310646212</v>
+      </c>
+      <c r="F80">
+        <v>-0.01084759025280801</v>
+      </c>
+      <c r="G80">
+        <v>0.06008167923671735</v>
+      </c>
+      <c r="H80">
+        <v>0.03249766872412268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.06070448120716944</v>
+        <v>0.02581584679981194</v>
       </c>
       <c r="C81">
-        <v>-0.1624531376601783</v>
+        <v>0.1559344861442932</v>
       </c>
       <c r="D81">
-        <v>0.07076475874835292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03997084498150342</v>
+      </c>
+      <c r="E81">
+        <v>-0.1076506738531239</v>
+      </c>
+      <c r="F81">
+        <v>0.008149396988721049</v>
+      </c>
+      <c r="G81">
+        <v>0.04798354150724453</v>
+      </c>
+      <c r="H81">
+        <v>-0.0800066389895578</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1178125590678014</v>
+        <v>0.06544737463868622</v>
       </c>
       <c r="C82">
-        <v>-0.2666981565370756</v>
+        <v>0.2308738474241658</v>
       </c>
       <c r="D82">
-        <v>0.04182090782160804</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.05515403145860636</v>
+      </c>
+      <c r="E82">
+        <v>-0.1611178230646262</v>
+      </c>
+      <c r="F82">
+        <v>-0.08416535325443932</v>
+      </c>
+      <c r="G82">
+        <v>0.1066322623589826</v>
+      </c>
+      <c r="H82">
+        <v>-0.1465523242273148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01800561907470007</v>
+        <v>-0.007187871719992291</v>
       </c>
       <c r="C83">
-        <v>-0.04843717901466145</v>
+        <v>0.01590690483500978</v>
       </c>
       <c r="D83">
-        <v>0.000896773322353541</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.07188881765135534</v>
+      </c>
+      <c r="E83">
+        <v>-0.09214789871093788</v>
+      </c>
+      <c r="F83">
+        <v>0.2180377097927516</v>
+      </c>
+      <c r="G83">
+        <v>0.8690271597151987</v>
+      </c>
+      <c r="H83">
+        <v>0.2628774195507215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0006596178033403619</v>
+        <v>-0.002976509243439289</v>
       </c>
       <c r="C84">
-        <v>-0.005854921781915506</v>
+        <v>0.02374498036257096</v>
       </c>
       <c r="D84">
-        <v>-0.01385537132835109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01742656550859448</v>
+      </c>
+      <c r="E84">
+        <v>0.04341050599076143</v>
+      </c>
+      <c r="F84">
+        <v>0.0611135168877868</v>
+      </c>
+      <c r="G84">
+        <v>-0.03179925140226165</v>
+      </c>
+      <c r="H84">
+        <v>-0.05580654140475297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.0845148585278562</v>
+        <v>0.0490359945470757</v>
       </c>
       <c r="C85">
-        <v>-0.1787235186100351</v>
+        <v>0.1719873572603029</v>
       </c>
       <c r="D85">
-        <v>0.09203314933979991</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.101520105550446</v>
+      </c>
+      <c r="E85">
+        <v>-0.1099094381469903</v>
+      </c>
+      <c r="F85">
+        <v>-0.001649511395273436</v>
+      </c>
+      <c r="G85">
+        <v>0.008031462515263941</v>
+      </c>
+      <c r="H85">
+        <v>-0.04992742950994114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02681836656245149</v>
+        <v>0.01589446810966039</v>
       </c>
       <c r="C86">
-        <v>-0.02708749757758212</v>
+        <v>0.0560550293416052</v>
       </c>
       <c r="D86">
-        <v>-0.07370794099175761</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05335529854807114</v>
+      </c>
+      <c r="E86">
+        <v>0.05055626441309436</v>
+      </c>
+      <c r="F86">
+        <v>0.07819792347939365</v>
+      </c>
+      <c r="G86">
+        <v>-0.02280805069255607</v>
+      </c>
+      <c r="H86">
+        <v>-0.05985788407993833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02094529108051361</v>
+        <v>0.01185638058676814</v>
       </c>
       <c r="C87">
-        <v>-0.06237853427753413</v>
+        <v>0.08040976775638703</v>
       </c>
       <c r="D87">
-        <v>-0.1164770066356243</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.04370262385299759</v>
+      </c>
+      <c r="E87">
+        <v>0.1023579283240465</v>
+      </c>
+      <c r="F87">
+        <v>0.09130589507896007</v>
+      </c>
+      <c r="G87">
+        <v>0.005807748576047484</v>
+      </c>
+      <c r="H87">
+        <v>-0.04672012321864212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0346838373411788</v>
+        <v>0.03344843191276646</v>
       </c>
       <c r="C88">
-        <v>-0.07233235762245714</v>
+        <v>0.07954609994282855</v>
       </c>
       <c r="D88">
-        <v>0.0001810319782794185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01900508521436365</v>
+      </c>
+      <c r="E88">
+        <v>0.0160384171614769</v>
+      </c>
+      <c r="F88">
+        <v>-0.0008370176316444366</v>
+      </c>
+      <c r="G88">
+        <v>-0.003787170894789002</v>
+      </c>
+      <c r="H88">
+        <v>-0.005553865309851591</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.4033503502538668</v>
+        <v>0.4023103758208196</v>
       </c>
       <c r="C89">
-        <v>0.2051236284682207</v>
+        <v>-0.1504761746266551</v>
       </c>
       <c r="D89">
-        <v>-0.002017928796408666</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04061622550211446</v>
+      </c>
+      <c r="E89">
+        <v>0.01909501498829596</v>
+      </c>
+      <c r="F89">
+        <v>0.1106511330123877</v>
+      </c>
+      <c r="G89">
+        <v>0.08554625667090533</v>
+      </c>
+      <c r="H89">
+        <v>0.05221080698535955</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.3191046581633378</v>
+        <v>0.3247643334398042</v>
       </c>
       <c r="C90">
-        <v>0.1407240546275784</v>
+        <v>-0.09027685180635386</v>
       </c>
       <c r="D90">
-        <v>-0.06346975219406588</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03041284091653227</v>
+      </c>
+      <c r="E90">
+        <v>0.03506691154979609</v>
+      </c>
+      <c r="F90">
+        <v>0.00343152168354157</v>
+      </c>
+      <c r="G90">
+        <v>0.01891730441218629</v>
+      </c>
+      <c r="H90">
+        <v>-0.0466263783365786</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.0928468855581402</v>
+        <v>0.06017347454032885</v>
       </c>
       <c r="C91">
-        <v>-0.2215745138663406</v>
+        <v>0.1920029434473575</v>
       </c>
       <c r="D91">
-        <v>0.1049415384168224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.04136415063870764</v>
+      </c>
+      <c r="E91">
+        <v>-0.1621044024891259</v>
+      </c>
+      <c r="F91">
+        <v>0.001310050871701821</v>
+      </c>
+      <c r="G91">
+        <v>0.03639084545544086</v>
+      </c>
+      <c r="H91">
+        <v>-0.0448954367312687</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.3166848924427889</v>
+        <v>0.343417985599221</v>
       </c>
       <c r="C92">
-        <v>0.1774110602648794</v>
+        <v>-0.1364895860528177</v>
       </c>
       <c r="D92">
-        <v>0.04850157189167192</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05756072544209099</v>
+      </c>
+      <c r="E92">
+        <v>-0.04144358826478563</v>
+      </c>
+      <c r="F92">
+        <v>0.07420841564115034</v>
+      </c>
+      <c r="G92">
+        <v>-0.07990811162435993</v>
+      </c>
+      <c r="H92">
+        <v>-0.06964045341761788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.3363601409149519</v>
+        <v>0.3313981614498647</v>
       </c>
       <c r="C93">
-        <v>0.1525780169725525</v>
+        <v>-0.1117078487514724</v>
       </c>
       <c r="D93">
-        <v>0.03192105951239733</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02262035384370908</v>
+      </c>
+      <c r="E93">
+        <v>-0.020490610876948</v>
+      </c>
+      <c r="F93">
+        <v>0.001856599973232598</v>
+      </c>
+      <c r="G93">
+        <v>-0.04621624691103728</v>
+      </c>
+      <c r="H93">
+        <v>-0.01688544396700447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1683203715474297</v>
+        <v>0.1117663670685411</v>
       </c>
       <c r="C94">
-        <v>-0.2726297490432836</v>
+        <v>0.2598873127175098</v>
       </c>
       <c r="D94">
-        <v>0.103957794944664</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1259843415424348</v>
+      </c>
+      <c r="E94">
+        <v>-0.2683116953931737</v>
+      </c>
+      <c r="F94">
+        <v>-0.1791918956136775</v>
+      </c>
+      <c r="G94">
+        <v>0.09974557630661632</v>
+      </c>
+      <c r="H94">
+        <v>-0.2912019833240731</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.001084990949148739</v>
+        <v>0.01523516423080403</v>
       </c>
       <c r="C95">
-        <v>-0.07062251264447816</v>
+        <v>0.09925059520947112</v>
       </c>
       <c r="D95">
-        <v>-0.09016732424165781</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1291124992304871</v>
+      </c>
+      <c r="E95">
+        <v>0.03000989913817497</v>
+      </c>
+      <c r="F95">
+        <v>-0.05855691972251792</v>
+      </c>
+      <c r="G95">
+        <v>0.002673127409397862</v>
+      </c>
+      <c r="H95">
+        <v>0.02931348096035892</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.00205680443795495</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001505422983482278</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.003491374267559922</v>
+      </c>
+      <c r="E97">
+        <v>0.003642862735056325</v>
+      </c>
+      <c r="F97">
+        <v>-0.0007014257439098818</v>
+      </c>
+      <c r="G97">
+        <v>-0.003751754173376282</v>
+      </c>
+      <c r="H97">
+        <v>-0.004356569781114944</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.121917617588517</v>
+        <v>0.1315197480783385</v>
       </c>
       <c r="C98">
-        <v>-0.1147474969625887</v>
+        <v>0.1576701194698112</v>
       </c>
       <c r="D98">
-        <v>-0.1365578961169306</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05308077520288068</v>
+      </c>
+      <c r="E98">
+        <v>0.1742488006097931</v>
+      </c>
+      <c r="F98">
+        <v>-0.2749274481018085</v>
+      </c>
+      <c r="G98">
+        <v>-0.05069671558460397</v>
+      </c>
+      <c r="H98">
+        <v>0.284584965518604</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-4.295533407789979e-05</v>
+        <v>0.002398883617989462</v>
       </c>
       <c r="C101">
-        <v>-0.02903398668644887</v>
+        <v>0.05153093129731728</v>
       </c>
       <c r="D101">
-        <v>-0.06223975093905504</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.004657470517385501</v>
+      </c>
+      <c r="E101">
+        <v>0.1175292565549672</v>
+      </c>
+      <c r="F101">
+        <v>0.05940248309575328</v>
+      </c>
+      <c r="G101">
+        <v>0.0337829024692369</v>
+      </c>
+      <c r="H101">
+        <v>0.05593434128025302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.04596661860029735</v>
+        <v>0.01479140227409449</v>
       </c>
       <c r="C102">
-        <v>-0.1530717491513774</v>
+        <v>0.109505624909756</v>
       </c>
       <c r="D102">
-        <v>-0.003651963705326579</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.02045328592418231</v>
+      </c>
+      <c r="E102">
+        <v>-0.08181855415715333</v>
+      </c>
+      <c r="F102">
+        <v>-0.07040030038531117</v>
+      </c>
+      <c r="G102">
+        <v>0.05025121992833816</v>
+      </c>
+      <c r="H102">
+        <v>-0.0564711345076669</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
